--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="127">
   <si>
     <t>table</t>
   </si>
@@ -171,6 +171,240 @@
   </si>
   <si>
     <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>DateDim</t>
+  </si>
+  <si>
+    <t>DATEKEY</t>
+  </si>
+  <si>
+    <t>WEEKNUMBER</t>
+  </si>
+  <si>
+    <t>QUARTER</t>
+  </si>
+  <si>
+    <t>YEAR_</t>
+  </si>
+  <si>
+    <t>FISCALMONTH</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FISCALYEAR </t>
+  </si>
+  <si>
+    <t>FISCALQUARTER</t>
+  </si>
+  <si>
+    <t>MONTH_</t>
+  </si>
+  <si>
+    <t>WEEKEND</t>
+  </si>
+  <si>
+    <t>DATE_</t>
+  </si>
+  <si>
+    <t>WEEKDAY</t>
+  </si>
+  <si>
+    <t>DAY_</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>TimeOfDayDim</t>
+  </si>
+  <si>
+    <t>TIMEKEY</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>HOUR</t>
+  </si>
+  <si>
+    <t>MINUTE</t>
+  </si>
+  <si>
+    <t>INTERACTIONKEY</t>
+  </si>
+  <si>
+    <t>INTERACTIONID</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When_ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>EmployeeDim</t>
+  </si>
+  <si>
+    <t>EMPLOYEEKEY</t>
+  </si>
+  <si>
+    <t>EMPLOYEEID</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>HOMECITY</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>HIREDATE</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>ChannelDim</t>
+  </si>
+  <si>
+    <t>CHANNELKEY</t>
+  </si>
+  <si>
+    <t>CHANNELID</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>CONTACTMETHOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility </t>
+  </si>
+  <si>
+    <t>BOOKINGKEY</t>
+  </si>
+  <si>
+    <t>CONFIRMATIONNUMBER</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>SEATNUMBER</t>
+  </si>
+  <si>
+    <t>BOOKINGID</t>
+  </si>
+  <si>
+    <t>BookingDim</t>
+  </si>
+  <si>
+    <t>AircraftDim</t>
+  </si>
+  <si>
+    <t>AIRCRAFTKEY</t>
+  </si>
+  <si>
+    <t>AIRCRAFTID</t>
+  </si>
+  <si>
+    <t>MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>FUELCAPACITY</t>
+  </si>
+  <si>
+    <t>WINGSPAN</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>AirportDim</t>
+  </si>
+  <si>
+    <t>AIRPORTKEY</t>
+  </si>
+  <si>
+    <t>AIRPORTID</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>TIMEZONE</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>FlightDim</t>
+  </si>
+  <si>
+    <t>FLIGHTKEY</t>
+  </si>
+  <si>
+    <t>FLIGHTID</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>SCHEDULEDDEPARTURETIME</t>
+  </si>
+  <si>
+    <t>SCHEDULEDARRIVALTIME</t>
+  </si>
+  <si>
+    <t>ACTUALARRIVALTIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACTUALDEPARTURETIME</t>
+  </si>
+  <si>
+    <t>PassengerProfileDim</t>
+  </si>
+  <si>
+    <t>PROFILEKEY</t>
+  </si>
+  <si>
+    <t>FREQUENTFLYERTIER</t>
+  </si>
+  <si>
+    <t>HOMEAIRPORT</t>
+  </si>
+  <si>
+    <t>CLUBMEMBERSHIPSTATUS</t>
+  </si>
+  <si>
+    <t>LIFETIMEMILEAGETIER</t>
   </si>
 </sst>
 </file>
@@ -218,10 +452,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,6 +1173,854 @@
         <v>14</v>
       </c>
     </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102" t="s">
+        <v>97</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>99</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>101</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>107</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>110</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>111</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>114</v>
+      </c>
+      <c r="C125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>115</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>117</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>119</v>
+      </c>
+      <c r="C130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B133" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>124</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>125</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>126</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="241">
   <si>
     <t>table</t>
   </si>
@@ -405,6 +405,348 @@
   </si>
   <si>
     <t>LIFETIMEMILEAGETIER</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>CustomerCare</t>
+  </si>
+  <si>
+    <t>SubmissionDate</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Primary identifier for each customer care entry</t>
+  </si>
+  <si>
+    <t>SubmissionTime</t>
+  </si>
+  <si>
+    <t>InteractionKey</t>
+  </si>
+  <si>
+    <t>RespondeDelay</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Duration between submission and response</t>
+  </si>
+  <si>
+    <t>ResolutionDelay</t>
+  </si>
+  <si>
+    <t>Duration between submission and resolution</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Overall duration of the interaction</t>
+  </si>
+  <si>
+    <t>ProfileKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing PassengerProfileDim for passenger profile information</t>
+  </si>
+  <si>
+    <t>FlightKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing FlightDim for flight information</t>
+  </si>
+  <si>
+    <t>PassengerKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing PassengerDim for passenger information</t>
+  </si>
+  <si>
+    <t>ResponseDate</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for response date</t>
+  </si>
+  <si>
+    <t>ResolutionDate</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for resolution date</t>
+  </si>
+  <si>
+    <t>ChannelKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing ChannelDim for channel information</t>
+  </si>
+  <si>
+    <t>EmployeeKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing EmployeeDim for employee information</t>
+  </si>
+  <si>
+    <t>ResponseTime</t>
+  </si>
+  <si>
+    <t>Foreign key referencing TimeOfDayDim for response time</t>
+  </si>
+  <si>
+    <t>ResolutionTime</t>
+  </si>
+  <si>
+    <t>Foreign key referencing TimeOfDayDim for resolution time</t>
+  </si>
+  <si>
+    <t>Foreign Index</t>
+  </si>
+  <si>
+    <t>FrequentFlyers</t>
+  </si>
+  <si>
+    <t>PointsRedeemed</t>
+  </si>
+  <si>
+    <t>Number of points redeemed by the frequent flyer</t>
+  </si>
+  <si>
+    <t>PointsEarned</t>
+  </si>
+  <si>
+    <t>Number of points earned by the frequent flyer</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Number of cancelled reservations</t>
+  </si>
+  <si>
+    <t>OvernightStand</t>
+  </si>
+  <si>
+    <t>Number of overnight stays</t>
+  </si>
+  <si>
+    <t>ReservationID_#DD</t>
+  </si>
+  <si>
+    <t>Unique identifier for each reservation</t>
+  </si>
+  <si>
+    <t>StatusKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing StatusDim for status information</t>
+  </si>
+  <si>
+    <t>FBKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing FareBasisDim for fare basis information</t>
+  </si>
+  <si>
+    <t>ClassKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing ClassDim for class information</t>
+  </si>
+  <si>
+    <t>PromotionKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing PromotionDim for promotion information</t>
+  </si>
+  <si>
+    <t>ReservationDate</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for reservation date</t>
+  </si>
+  <si>
+    <t>SrcAirportKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing AirportDim for source airport information</t>
+  </si>
+  <si>
+    <t>DstAirportKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing AirportDim for destination airport information</t>
+  </si>
+  <si>
+    <t>BookingKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing BookingDim for booking information</t>
+  </si>
+  <si>
+    <t>Reservations</t>
+  </si>
+  <si>
+    <t>TotalFare</t>
+  </si>
+  <si>
+    <t>Total fare of the reservation</t>
+  </si>
+  <si>
+    <t>AncillaryRevenue</t>
+  </si>
+  <si>
+    <t>Revenue from ancillary services</t>
+  </si>
+  <si>
+    <t>GovernmentalTaxes</t>
+  </si>
+  <si>
+    <t>Taxes collected by government agencies</t>
+  </si>
+  <si>
+    <t>AirportTaxes</t>
+  </si>
+  <si>
+    <t>Taxes specific to airports</t>
+  </si>
+  <si>
+    <t>SecurityFees</t>
+  </si>
+  <si>
+    <t>Fees for security services</t>
+  </si>
+  <si>
+    <t>OtherFees</t>
+  </si>
+  <si>
+    <t>Other fees associated with the reservation</t>
+  </si>
+  <si>
+    <t>BaggageFees</t>
+  </si>
+  <si>
+    <t>Fees for baggage services</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Discount applied to the reservation</t>
+  </si>
+  <si>
+    <t>UpgradeFees</t>
+  </si>
+  <si>
+    <t>Fees for upgrades</t>
+  </si>
+  <si>
+    <t>DepartureDate</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for departure date</t>
+  </si>
+  <si>
+    <t>DepartureTimeKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing TimeOfDayDim for departure time information</t>
+  </si>
+  <si>
+    <t>FlightActivity</t>
+  </si>
+  <si>
+    <t>BookedSeats</t>
+  </si>
+  <si>
+    <t>Number of seats booked for the flight</t>
+  </si>
+  <si>
+    <t>PassengersCount</t>
+  </si>
+  <si>
+    <t>Total count of passengers on the flight</t>
+  </si>
+  <si>
+    <t>EmptySeats</t>
+  </si>
+  <si>
+    <t>Number of empty seats on the flight</t>
+  </si>
+  <si>
+    <t>FuelConsumption</t>
+  </si>
+  <si>
+    <t>Amount of fuel consumed during the flight</t>
+  </si>
+  <si>
+    <t>CrewCount</t>
+  </si>
+  <si>
+    <t>Total count of crew members on the flight</t>
+  </si>
+  <si>
+    <t>Foreign key referencing AirportDim for the source airport of the flight</t>
+  </si>
+  <si>
+    <t>Foreign key referencing AirportDim for the destination airport of the flight</t>
+  </si>
+  <si>
+    <t>ScheduledArrDateKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for the scheduled arrival date of the flight</t>
+  </si>
+  <si>
+    <t>ActualArrDateKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for the actual arrival date of the flight</t>
+  </si>
+  <si>
+    <t>ScheduledDepDateKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for the scheduled departure date of the flight</t>
+  </si>
+  <si>
+    <t>ActualDepDateKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing DateDim for the actual departure date of the flight</t>
+  </si>
+  <si>
+    <t>AircraftKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing AircraftDim for aircraft information</t>
+  </si>
+  <si>
+    <t>CaptinKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing EmployeeDim for the captain of the flight</t>
+  </si>
+  <si>
+    <t>CoCaptinKey</t>
+  </si>
+  <si>
+    <t>Foreign key referencing EmployeeDim for the co-captain of the flight</t>
   </si>
 </sst>
 </file>
@@ -452,13 +794,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +1094,8 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1937,7 +2282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>118</v>
       </c>
@@ -1945,7 +2290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>119</v>
       </c>
@@ -1953,7 +2298,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>120</v>
       </c>
@@ -1961,7 +2306,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +2320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>121</v>
       </c>
@@ -1989,7 +2334,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>123</v>
       </c>
@@ -1997,7 +2342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>124</v>
       </c>
@@ -2005,7 +2350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>125</v>
       </c>
@@ -2013,7 +2358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>126</v>
       </c>
@@ -2021,7 +2366,1072 @@
         <v>15</v>
       </c>
     </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B139" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" t="s">
+        <v>133</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>136</v>
+      </c>
+      <c r="C140" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" t="s">
+        <v>134</v>
+      </c>
+      <c r="E140" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>138</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>139</v>
+      </c>
+      <c r="E142" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>139</v>
+      </c>
+      <c r="E143" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" t="s">
+        <v>134</v>
+      </c>
+      <c r="E146" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" t="s">
+        <v>134</v>
+      </c>
+      <c r="E147" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148" t="s">
+        <v>133</v>
+      </c>
+      <c r="D148" t="s">
+        <v>134</v>
+      </c>
+      <c r="E148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" t="s">
+        <v>133</v>
+      </c>
+      <c r="D149" t="s">
+        <v>134</v>
+      </c>
+      <c r="E149" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D152" t="s">
+        <v>134</v>
+      </c>
+      <c r="E152" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>161</v>
+      </c>
+      <c r="C153" t="s">
+        <v>67</v>
+      </c>
+      <c r="D153" t="s">
+        <v>134</v>
+      </c>
+      <c r="E153" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F154" s="4"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" t="s">
+        <v>165</v>
+      </c>
+      <c r="C155" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>139</v>
+      </c>
+      <c r="E156" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>169</v>
+      </c>
+      <c r="C157" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>139</v>
+      </c>
+      <c r="E158" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" t="s">
+        <v>139</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E160" t="s">
+        <v>150</v>
+      </c>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E161" t="s">
+        <v>176</v>
+      </c>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>177</v>
+      </c>
+      <c r="C162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>179</v>
+      </c>
+      <c r="C163" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" t="s">
+        <v>134</v>
+      </c>
+      <c r="E163" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" t="s">
+        <v>134</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>183</v>
+      </c>
+      <c r="C165" t="s">
+        <v>133</v>
+      </c>
+      <c r="D165" t="s">
+        <v>134</v>
+      </c>
+      <c r="E165" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" t="s">
+        <v>186</v>
+      </c>
+      <c r="F166" s="4"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E167" t="s">
+        <v>188</v>
+      </c>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>145</v>
+      </c>
+      <c r="C168" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" t="s">
+        <v>134</v>
+      </c>
+      <c r="E168" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>189</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E170" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" t="s">
+        <v>147</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F172" s="4"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173" t="s">
+        <v>192</v>
+      </c>
+      <c r="C173" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E173" t="s">
+        <v>193</v>
+      </c>
+      <c r="F173" s="4"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>139</v>
+      </c>
+      <c r="E174" t="s">
+        <v>174</v>
+      </c>
+      <c r="F174" s="4"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>194</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>139</v>
+      </c>
+      <c r="E175" t="s">
+        <v>195</v>
+      </c>
+      <c r="F175" s="4"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s">
+        <v>139</v>
+      </c>
+      <c r="E176" t="s">
+        <v>197</v>
+      </c>
+      <c r="F176" s="4"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>198</v>
+      </c>
+      <c r="C177" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s">
+        <v>139</v>
+      </c>
+      <c r="E177" t="s">
+        <v>199</v>
+      </c>
+      <c r="F177" s="4"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F178" s="4"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F179" s="4"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>204</v>
+      </c>
+      <c r="C180" t="s">
+        <v>14</v>
+      </c>
+      <c r="D180" t="s">
+        <v>139</v>
+      </c>
+      <c r="E180" t="s">
+        <v>205</v>
+      </c>
+      <c r="F180" s="4"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>206</v>
+      </c>
+      <c r="C181" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" t="s">
+        <v>139</v>
+      </c>
+      <c r="E181" t="s">
+        <v>207</v>
+      </c>
+      <c r="F181" s="4"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
+        <v>14</v>
+      </c>
+      <c r="D182" t="s">
+        <v>139</v>
+      </c>
+      <c r="E182" t="s">
+        <v>209</v>
+      </c>
+      <c r="F182" s="4"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>210</v>
+      </c>
+      <c r="C183" t="s">
+        <v>133</v>
+      </c>
+      <c r="D183" t="s">
+        <v>134</v>
+      </c>
+      <c r="E183" t="s">
+        <v>211</v>
+      </c>
+      <c r="F183" s="4"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F184" s="4"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F185" s="4"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>179</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" t="s">
+        <v>134</v>
+      </c>
+      <c r="E186" t="s">
+        <v>180</v>
+      </c>
+      <c r="F186" s="4"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>177</v>
+      </c>
+      <c r="C187" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" t="s">
+        <v>134</v>
+      </c>
+      <c r="E187" t="s">
+        <v>178</v>
+      </c>
+      <c r="F187" s="4"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F188" s="4"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" t="s">
+        <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>14</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" t="s">
+        <v>188</v>
+      </c>
+      <c r="F189" s="4"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F190" s="4"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" t="s">
+        <v>212</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" t="s">
+        <v>213</v>
+      </c>
+      <c r="F191" s="4"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F192" s="4"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B193" t="s">
+        <v>215</v>
+      </c>
+      <c r="C193" t="s">
+        <v>14</v>
+      </c>
+      <c r="D193" t="s">
+        <v>139</v>
+      </c>
+      <c r="E193" t="s">
+        <v>216</v>
+      </c>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>217</v>
+      </c>
+      <c r="C194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D194" t="s">
+        <v>139</v>
+      </c>
+      <c r="E194" t="s">
+        <v>218</v>
+      </c>
+      <c r="F194" s="4"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>219</v>
+      </c>
+      <c r="C195" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" t="s">
+        <v>139</v>
+      </c>
+      <c r="E195" t="s">
+        <v>220</v>
+      </c>
+      <c r="F195" s="4"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>221</v>
+      </c>
+      <c r="C196" t="s">
+        <v>14</v>
+      </c>
+      <c r="D196" t="s">
+        <v>139</v>
+      </c>
+      <c r="E196" t="s">
+        <v>222</v>
+      </c>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>223</v>
+      </c>
+      <c r="C197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D197" t="s">
+        <v>139</v>
+      </c>
+      <c r="E197" t="s">
+        <v>224</v>
+      </c>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F198" s="4"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F199" s="4"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" t="s">
+        <v>14</v>
+      </c>
+      <c r="D200" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" t="s">
+        <v>228</v>
+      </c>
+      <c r="F200" s="4"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>229</v>
+      </c>
+      <c r="C201" t="s">
+        <v>14</v>
+      </c>
+      <c r="D201" t="s">
+        <v>134</v>
+      </c>
+      <c r="E201" t="s">
+        <v>230</v>
+      </c>
+      <c r="F201" s="4"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" t="s">
+        <v>14</v>
+      </c>
+      <c r="D202" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" t="s">
+        <v>232</v>
+      </c>
+      <c r="F202" s="4"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>233</v>
+      </c>
+      <c r="C203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D203" t="s">
+        <v>134</v>
+      </c>
+      <c r="E203" t="s">
+        <v>234</v>
+      </c>
+      <c r="F203" s="4"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F204" s="4"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F205" s="4"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>237</v>
+      </c>
+      <c r="C206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D206" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" t="s">
+        <v>238</v>
+      </c>
+      <c r="F206" s="4"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>239</v>
+      </c>
+      <c r="C207" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" t="s">
+        <v>240</v>
+      </c>
+      <c r="F207" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>